--- a/Coverage Survey/Burkina Faso/Oncho/March 2021/bf_ect_Oncho_3_cap_202104.xlsx
+++ b/Coverage Survey/Burkina Faso/Oncho/March 2021/bf_ect_Oncho_3_cap_202104.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Burkina Faso\Oncho\March 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{32A9C511-8265-4294-B382-DFB60378BE13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0BB2E6-2691-4237-9A17-775A260DA145}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="187">
   <si>
     <t>type</t>
   </si>
@@ -231,9 +231,6 @@
     <t>code_chef_eq</t>
   </si>
   <si>
-    <t>select_one districts</t>
-  </si>
-  <si>
     <t>districts</t>
   </si>
   <si>
@@ -573,9 +570,6 @@
     <t>bf_ect_Oncho_3_cap_202104</t>
   </si>
   <si>
-    <t>I3_a_Numero_grappe</t>
-  </si>
-  <si>
     <t>I3_b_Numero_grappe</t>
   </si>
   <si>
@@ -583,12 +577,18 @@
   </si>
   <si>
     <t>I3.a. Nom grappe</t>
+  </si>
+  <si>
+    <t>I3_a_Nom_grappe</t>
+  </si>
+  <si>
+    <t>. &lt; 30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -677,7 +677,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -988,14 +988,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1016,10 +1016,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -1028,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>4</v>
@@ -1048,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>65</v>
@@ -1056,13 +1056,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>65</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
@@ -1105,35 +1105,35 @@
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
         <v>65</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>65</v>
@@ -1147,7 +1147,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>65</v>
@@ -1156,18 +1156,18 @@
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>65</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>65</v>
@@ -1192,13 +1192,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>65</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -1206,24 +1209,27 @@
         <v>14</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="F12" s="13" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>65</v>
@@ -1231,135 +1237,138 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="H19" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1367,27 +1376,27 @@
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>65</v>
@@ -1395,19 +1404,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1415,16 +1424,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1432,10 +1441,10 @@
         <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>65</v>
@@ -1446,16 +1455,16 @@
         <v>12</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1463,10 +1472,10 @@
         <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>66</v>
@@ -1477,10 +1486,10 @@
         <v>12</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>66</v>
@@ -1491,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1499,7 +1508,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1538,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1598,32 +1607,32 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
@@ -1631,10 +1640,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
@@ -1642,7 +1651,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
@@ -1653,10 +1662,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>30</v>
@@ -1664,10 +1673,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>31</v>
@@ -1675,10 +1684,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>32</v>
@@ -1686,10 +1695,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>33</v>
@@ -1697,7 +1706,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>37</v>
@@ -1708,7 +1717,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>51</v>
@@ -1719,10 +1728,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>36</v>
@@ -1730,10 +1739,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>38</v>
@@ -1741,10 +1750,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>39</v>
@@ -1752,10 +1761,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>40</v>
@@ -1763,10 +1772,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>41</v>
@@ -1774,43 +1783,43 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>42</v>
@@ -1818,10 +1827,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>43</v>
@@ -1829,10 +1838,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>44</v>
@@ -1840,10 +1849,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>45</v>
@@ -1851,10 +1860,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>46</v>
@@ -1862,10 +1871,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>47</v>
@@ -1873,10 +1882,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>48</v>
@@ -1884,10 +1893,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>49</v>
@@ -1895,10 +1904,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>50</v>
@@ -1906,7 +1915,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>37</v>
@@ -1917,7 +1926,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>51</v>
@@ -1928,10 +1937,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>52</v>
@@ -1939,10 +1948,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>53</v>
@@ -1950,10 +1959,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>54</v>
@@ -1961,10 +1970,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>55</v>
@@ -1972,10 +1981,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>56</v>
@@ -1983,7 +1992,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>57</v>
@@ -1994,10 +2003,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>58</v>
@@ -2081,7 +2090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2108,21 +2117,21 @@
         <v>62</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="C2" s="12">
         <v>20210329</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
